--- a/docs/languageCode.xlsx
+++ b/docs/languageCode.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="374">
   <si>
     <t>Locale</t>
   </si>
@@ -1149,9 +1149,6 @@
   </si>
   <si>
     <t>zu</t>
-  </si>
-  <si>
-    <t>}</t>
   </si>
 </sst>
 </file>
@@ -2306,8 +2303,8 @@
   <sheetPr/>
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G184" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -2359,7 +2356,7 @@
         <v>1252</v>
       </c>
       <c r="G2" t="str">
-        <f>"'"&amp;B2&amp;"':"&amp;"'"&amp;A2&amp;"',"</f>
+        <f>"'"&amp;C2&amp;"':"&amp;"'"&amp;A2&amp;"',"</f>
         <v>'af':'Afrikaans',</v>
       </c>
     </row>
@@ -2383,7 +2380,7 @@
         <v>1250</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G34" si="0">"'"&amp;B3&amp;"':"&amp;"'"&amp;A3&amp;"',"</f>
+        <f t="shared" ref="G3:G34" si="0">"'"&amp;C3&amp;"':"&amp;"'"&amp;A3&amp;"',"</f>
         <v>'sq':'Albanian',</v>
       </c>
     </row>
@@ -2432,7 +2429,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Algeria',</v>
+        <v>'ar-dz':'Arabic - Algeria',</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2456,7 +2453,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Bahrain',</v>
+        <v>'ar-bh':'Arabic - Bahrain',</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2480,7 +2477,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Egypt',</v>
+        <v>'ar-eg':'Arabic - Egypt',</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2504,7 +2501,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Iraq',</v>
+        <v>'ar-iq':'Arabic - Iraq',</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2528,7 +2525,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Jordan',</v>
+        <v>'ar-jo':'Arabic - Jordan',</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2552,7 +2549,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Kuwait',</v>
+        <v>'ar-kw':'Arabic - Kuwait',</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2576,7 +2573,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Lebanon',</v>
+        <v>'ar-lb':'Arabic - Lebanon',</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2600,7 +2597,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Libya',</v>
+        <v>'ar-ly':'Arabic - Libya',</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2624,7 +2621,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Morocco',</v>
+        <v>'ar-ma':'Arabic - Morocco',</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2648,7 +2645,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Oman',</v>
+        <v>'ar-om':'Arabic - Oman',</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2672,7 +2669,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Qatar',</v>
+        <v>'ar-qa':'Arabic - Qatar',</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2696,7 +2693,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Saudi Arabia',</v>
+        <v>'ar-sa':'Arabic - Saudi Arabia',</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2720,7 +2717,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Syria',</v>
+        <v>'ar-sy':'Arabic - Syria',</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2744,7 +2741,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Tunisia',</v>
+        <v>'ar-tn':'Arabic - Tunisia',</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2768,7 +2765,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - United Arab Emirates',</v>
+        <v>'ar-ae':'Arabic - United Arab Emirates',</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2792,7 +2789,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>'ar':'Arabic - Yemen',</v>
+        <v>'ar-ye':'Arabic - Yemen',</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2864,7 +2861,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>'az':'Azeri - Cyrillic',</v>
+        <v>'az-az':'Azeri - Cyrillic',</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2888,7 +2885,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>'az':'Azeri - Latin',</v>
+        <v>'az-az':'Azeri - Latin',</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3104,7 +3101,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>'zh':'Chinese - China',</v>
+        <v>'zh-cn':'Chinese - China',</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3128,7 +3125,7 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>'zh':'Chinese - Hong Kong SAR',</v>
+        <v>'zh-hk':'Chinese - Hong Kong SAR',</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3151,8 +3148,8 @@
         <v>11</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ref="G35:G66" si="1">"'"&amp;B35&amp;"':"&amp;"'"&amp;A35&amp;"',"</f>
-        <v>'zh':'Chinese - Macau SAR',</v>
+        <f t="shared" ref="G35:G66" si="1">"'"&amp;C35&amp;"':"&amp;"'"&amp;A35&amp;"',"</f>
+        <v>'zh-mo':'Chinese - Macau SAR',</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3176,7 +3173,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>'zh':'Chinese - Singapore',</v>
+        <v>'zh-sg':'Chinese - Singapore',</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3200,7 +3197,7 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>'zh':'Chinese - Taiwan',</v>
+        <v>'zh-tw':'Chinese - Taiwan',</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3296,7 +3293,7 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>'Dhivehi':'Divehi',</v>
+        <v>'Maldivian':'Divehi',</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3320,7 +3317,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>'nl':'Dutch - Belgium',</v>
+        <v>'nl-be':'Dutch - Belgium',</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3344,7 +3341,7 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>'nl':'Dutch - Netherlands',</v>
+        <v>'nl-nl':'Dutch - Netherlands',</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3392,7 +3389,7 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Australia',</v>
+        <v>'en-au':'English - Australia',</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3416,7 +3413,7 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Belize',</v>
+        <v>'en-bz':'English - Belize',</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3440,7 +3437,7 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Canada',</v>
+        <v>'en-ca':'English - Canada',</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3464,7 +3461,7 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Caribbean',</v>
+        <v>'en-cb':'English - Caribbean',</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3488,7 +3485,7 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Great Britain',</v>
+        <v>'en-gb':'English - Great Britain',</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3512,7 +3509,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - India',</v>
+        <v>'en-in':'English - India',</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3536,7 +3533,7 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Ireland',</v>
+        <v>'en-ie':'English - Ireland',</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3560,7 +3557,7 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Jamaica',</v>
+        <v>'en-jm':'English - Jamaica',</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3584,7 +3581,7 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - New Zealand',</v>
+        <v>'en-nz':'English - New Zealand',</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3608,7 +3605,7 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Phillippines',</v>
+        <v>'en-ph':'English - Phillippines',</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3632,7 +3629,7 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Southern Africa',</v>
+        <v>'en-za':'English - Southern Africa',</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3656,7 +3653,7 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Trinidad',</v>
+        <v>'en-tt':'English - Trinidad',</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3680,7 +3677,7 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - United States',</v>
+        <v>'en-us':'English - United States',</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3704,7 +3701,7 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="1"/>
-        <v>'en':'English - Zimbabwe',</v>
+        <v>' ':'English - Zimbabwe',</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3872,7 +3869,7 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
-        <v>'fr':'French - Belgium',</v>
+        <v>'fr-be':'French - Belgium',</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3896,7 +3893,7 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
-        <v>'fr':'French - Cameroon',</v>
+        <v>' ':'French - Cameroon',</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3919,8 +3916,8 @@
         <v>1252</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G98" si="2">"'"&amp;B67&amp;"':"&amp;"'"&amp;A67&amp;"',"</f>
-        <v>'fr':'French - Canada',</v>
+        <f t="shared" ref="G67:G98" si="2">"'"&amp;C67&amp;"':"&amp;"'"&amp;A67&amp;"',"</f>
+        <v>'fr-ca':'French - Canada',</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3944,7 +3941,7 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - Congo',</v>
+        <v>' ':'French - Congo',</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3968,7 +3965,7 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - Cote d'Ivoire',</v>
+        <v>' ':'French - Cote d'Ivoire',</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3992,7 +3989,7 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - France',</v>
+        <v>'fr-fr':'French - France',</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4016,7 +4013,7 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - Luxembourg',</v>
+        <v>'fr-lu':'French - Luxembourg',</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4040,7 +4037,7 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - Mali',</v>
+        <v>' ':'French - Mali',</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4064,7 +4061,7 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - Monaco',</v>
+        <v>' ':'French - Monaco',</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4088,7 +4085,7 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - Morocco',</v>
+        <v>' ':'French - Morocco',</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4112,7 +4109,7 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - Senegal',</v>
+        <v>' ':'French - Senegal',</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4136,7 +4133,7 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - Switzerland',</v>
+        <v>'fr-ch':'French - Switzerland',</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4160,7 +4157,7 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>'fr':'French - West Indies',</v>
+        <v>' ':'French - West Indies',</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4208,7 +4205,7 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>'gd':'Gaelic - Ireland',</v>
+        <v>'gd-ie':'Gaelic - Ireland',</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4256,7 +4253,7 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>'gl':'Galician',</v>
+        <v>' ':'Galician',</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4280,7 +4277,7 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>'ka':'Georgian',</v>
+        <v>' ':'Georgian',</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4304,7 +4301,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>'de':'German - Austria',</v>
+        <v>'de-at':'German - Austria',</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4328,7 +4325,7 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>'de':'German - Germany',</v>
+        <v>'de-de':'German - Germany',</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4352,7 +4349,7 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>'de':'German - Liechtenstein',</v>
+        <v>'de-li':'German - Liechtenstein',</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4376,7 +4373,7 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>'de':'German - Luxembourg',</v>
+        <v>'de-lu':'German - Luxembourg',</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4400,7 +4397,7 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>'de':'German - Switzerland',</v>
+        <v>'de-ch':'German - Switzerland',</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4664,7 +4661,7 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>'it':'Italian - Italy',</v>
+        <v>'it-it':'Italian - Italy',</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4687,8 +4684,8 @@
         <v>1252</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" ref="G99:G130" si="3">"'"&amp;B99&amp;"':"&amp;"'"&amp;A99&amp;"',"</f>
-        <v>'it':'Italian - Switzerland',</v>
+        <f t="shared" ref="G99:G130" si="3">"'"&amp;C99&amp;"':"&amp;"'"&amp;A99&amp;"',"</f>
+        <v>'it-ch':'Italian - Switzerland',</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5000,7 +4997,7 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="3"/>
-        <v>'ms':'Malay - Brunei',</v>
+        <v>'ms-bn':'Malay - Brunei',</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5024,7 +5021,7 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="3"/>
-        <v>'ms':'Malay - Malaysia',</v>
+        <v>'ms-my':'Malay - Malaysia',</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5240,7 +5237,7 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="3"/>
-        <v>'nb':'Norwegian - Bokml',</v>
+        <v>'nb-no':'Norwegian - Bokml',</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5264,7 +5261,7 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="3"/>
-        <v>'nn':'Norwegian - Nynorsk',</v>
+        <v>'no-no':'Norwegian - Nynorsk',</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5336,7 +5333,7 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="3"/>
-        <v>'pt':'Portuguese - Brazil',</v>
+        <v>'pt-br':'Portuguese - Brazil',</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5360,7 +5357,7 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="3"/>
-        <v>'pt':'Portuguese - Portugal',</v>
+        <v>'pt-pt':'Portuguese - Portugal',</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5432,7 +5429,7 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="3"/>
-        <v>'ro':'Romanian - Moldova',</v>
+        <v>'ro-mo':'Romanian - Moldova',</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5455,7 +5452,7 @@
         <v>1250</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G162" si="4">"'"&amp;B131&amp;"':"&amp;"'"&amp;A131&amp;"',"</f>
+        <f t="shared" ref="G131:G162" si="4">"'"&amp;C131&amp;"':"&amp;"'"&amp;A131&amp;"',"</f>
         <v>'ro':'Romanian - Romania',</v>
       </c>
     </row>
@@ -5504,7 +5501,7 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>'ru':'Russian - Moldova',</v>
+        <v>'ru-mo':'Russian - Moldova',</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5576,7 +5573,7 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>'sr':'Serbian - Cyrillic',</v>
+        <v>'sr-sp':'Serbian - Cyrillic',</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5600,7 +5597,7 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>'sr':'Serbian - Latin',</v>
+        <v>'sr-sp':'Serbian - Latin',</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5696,7 +5693,7 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>'Sinhalese':'Sinhala',</v>
+        <v>'si':'Sinhala',</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5816,7 +5813,7 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Argentina',</v>
+        <v>'es-ar':'Spanish - Argentina',</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5840,7 +5837,7 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Bolivia',</v>
+        <v>'es-bo':'Spanish - Bolivia',</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5864,7 +5861,7 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Chile',</v>
+        <v>'es-cl':'Spanish - Chile',</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5888,7 +5885,7 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Colombia',</v>
+        <v>'es-co':'Spanish - Colombia',</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5912,7 +5909,7 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Costa Rica',</v>
+        <v>'es-cr':'Spanish - Costa Rica',</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5936,7 +5933,7 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Dominican Republic',</v>
+        <v>'es-do':'Spanish - Dominican Republic',</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5960,7 +5957,7 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Ecuador',</v>
+        <v>'es-ec':'Spanish - Ecuador',</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5984,7 +5981,7 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - El Salvador',</v>
+        <v>'es-sv':'Spanish - El Salvador',</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6008,7 +6005,7 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Guatemala',</v>
+        <v>'es-gt':'Spanish - Guatemala',</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6032,7 +6029,7 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Honduras',</v>
+        <v>'es-hn':'Spanish - Honduras',</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6056,7 +6053,7 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Mexico',</v>
+        <v>'es-mx':'Spanish - Mexico',</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6080,7 +6077,7 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Nicaragua',</v>
+        <v>'es-ni':'Spanish - Nicaragua',</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6104,7 +6101,7 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Panama',</v>
+        <v>'es-pa':'Spanish - Panama',</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6128,7 +6125,7 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Paraguay',</v>
+        <v>'es-py':'Spanish - Paraguay',</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6152,7 +6149,7 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Peru',</v>
+        <v>'es-pe':'Spanish - Peru',</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6176,7 +6173,7 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Puerto Rico',</v>
+        <v>'es-pr':'Spanish - Puerto Rico',</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6200,7 +6197,7 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>'es':'Spanish - Spain (Traditional)',</v>
+        <v>'es-es':'Spanish - Spain (Traditional)',</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6223,8 +6220,8 @@
         <v>1252</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" ref="G163:G188" si="5">"'"&amp;B163&amp;"':"&amp;"'"&amp;A163&amp;"',"</f>
-        <v>'es':'Spanish - Uruguay',</v>
+        <f t="shared" ref="G163:G189" si="5">"'"&amp;C163&amp;"':"&amp;"'"&amp;A163&amp;"',"</f>
+        <v>'es-uy':'Spanish - Uruguay',</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6248,7 +6245,7 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="5"/>
-        <v>'es':'Spanish - Venezuela',</v>
+        <v>'es-ve':'Spanish - Venezuela',</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6296,7 +6293,7 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="5"/>
-        <v>'sv':'Swedish - Finland',</v>
+        <v>'sv-fi':'Swedish - Finland',</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6320,7 +6317,7 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="5"/>
-        <v>'sv':'Swedish - Sweden',</v>
+        <v>'sv-se':'Swedish - Sweden',</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6608,7 +6605,7 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="5"/>
-        <v>' ':'Unicode',</v>
+        <v>'UTF-8':'Unicode',</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6656,7 +6653,7 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="5"/>
-        <v>'uz':'Uzbek - Cyrillic',</v>
+        <v>'uz-uz':'Uzbek - Cyrillic',</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6680,7 +6677,7 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="5"/>
-        <v>'uz':'Uzbek - Latin',</v>
+        <v>'uz-uz':'Uzbek - Latin',</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6828,8 +6825,9 @@
       </c>
     </row>
     <row r="189" spans="7:7">
-      <c r="G189" t="s">
-        <v>374</v>
+      <c r="G189" t="str">
+        <f t="shared" si="5"/>
+        <v>'':'',</v>
       </c>
     </row>
   </sheetData>
